--- a/data/data_desc.xlsx
+++ b/data/data_desc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzhartlieb/Documents/SignalIduna/if_license_plates_could_talk/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6344A07-472E-274E-BD4B-8F56861DEDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FF77AE-B6BB-7D49-8B92-D8631E4CD240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{1CB04E16-8E2C-7E47-9C6E-230C3E746D82}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>kreis_key</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>kreis_name</t>
+  </si>
+  <si>
+    <t>license_plate</t>
+  </si>
+  <si>
+    <t>Kfz-Kennzeichen</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -263,6 +275,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -577,131 +592,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835F16C8-7440-424E-8B0E-6799D8A0C52A}">
-  <dimension ref="A2:G12"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.1640625" customWidth="1"/>
-    <col min="6" max="6" width="57.5" customWidth="1"/>
-    <col min="7" max="7" width="58.1640625" customWidth="1"/>
+    <col min="1" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" customWidth="1"/>
+    <col min="7" max="7" width="57.5" customWidth="1"/>
+    <col min="8" max="8" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -709,22 +733,26 @@
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -732,8 +760,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -741,8 +770,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -750,8 +780,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -759,6 +790,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
